--- a/medicine/Pharmacie/Facteur_de_von_Willebrand/Facteur_de_von_Willebrand.xlsx
+++ b/medicine/Pharmacie/Facteur_de_von_Willebrand/Facteur_de_von_Willebrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le facteur de von Willebrand est un des éléments nécessaires à l’hémostase primaire.
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le facteur de von Willebrand est un multimère constitué de deux sous-unités identiques[3] mais peut être présent sous forme de monomères plus ou moins étirés, ce qui en modifie ses propriétés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur de von Willebrand est un multimère constitué de deux sous-unités identiques mais peut être présent sous forme de monomères plus ou moins étirés, ce qui en modifie ses propriétés.
 Le récepteur au VWF sur le thrombocyte est appelé Gp-1b-IX-V (Gp pour glycoprotéine).
 Le facteur de von Willebrand est synthétisé par :
 Les mégacaryocytes (20 % de sa synthèse) et stocké dans les granules alpha des plaquettes .
@@ -551,9 +565,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son rôle dans la coagulation sanguine, il intervient dans l'angiogenèse, la prolifération cellulaire, l'inflammation et la survie tumorale[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son rôle dans la coagulation sanguine, il intervient dans l'angiogenèse, la prolifération cellulaire, l'inflammation et la survie tumorale.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La concentration plasmatique est de 10 μg/mL mais il existe de grandes variations physiologiques de 4 à 24 μg/mL.
 Il existe plusieurs pathologies héréditaires ou acquises impliquant le VWF. Il s'agit de la maladie de Willebrand, pouvant se manifester de manière sévère (facile à détecter) ou modérée/fruste (plus difficile à détecter). Le purpura thrombotique thrombocytopénique fait également intervenir le facteur sous forme de multimères. 
